--- a/data/vessel_list.xlsx
+++ b/data/vessel_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanaj\Documents\GitHub\py-encoder-src\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\py-encoder-src\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6615AC-72D5-4468-8E1E-F179DCC72A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3C11E5-19C8-4FFB-BDC2-A087B184C015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16320" yWindow="-6225" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>vessel_name</t>
   </si>
@@ -58,17 +58,22 @@
   </si>
   <si>
     <t>SL ROSE</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -96,8 +101,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,10 +384,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -390,10 +396,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -467,14 +473,6 @@
       </c>
       <c r="B10" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
